--- a/October_daily.xlsx
+++ b/October_daily.xlsx
@@ -605,28 +605,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Definition: Measures the response time of the system in milliseconds. Lower values indicate better performance.</t>
+          <t>Definition: Shows the comparison of average response time between two dates in seconds.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>This metric tracks how quickly the system responds to user requests. Faster response times lead to better user experience.</t>
+          <t>Reveals how system performance has changed over time. A decrease in response time indicates improved performance.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Example: 03-10 Avg Response Time: 245ms, 02-10: 260ms, Change: -15ms (↓5.8% improvement)</t>
+          <t>Example: 02-10 Avg Response Time: 39.57s, 01-10: 38.98s, Change: +0.59s (↑1.5% increase)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Status: IMPROVING (response time decreased), DEGRADING (increased), STABLE (minimal change)</t>
+          <t>Status: IMPROVING (response time decreased from older to newer date), DEGRADING (increased), STABLE (minimal change)</t>
         </is>
       </c>
     </row>
@@ -640,28 +640,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Definition: Measures the total number of requests processed by the system in a given time period.</t>
+          <t>Definition: Shows the comparison of total request volume between two dates.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>This metric indicates the system's workload and capacity. Higher throughput often indicates higher usage and demand.</t>
+          <t>Highlights changes in system usage and demand between the compared dates.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Example: 03-10 Total Requests: 1,247, 02-10: 1,156, Change: +91 requests (↑7.9% increase)</t>
+          <t>Example: 02-10 Total Requests: 1,247, 01-10: 1,156, Change: +91 requests (↑7.9% increase)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Status: GROWING (more requests), DECLINING (fewer requests), STABLE (similar request volume)</t>
+          <t>Status: GROWING (requests increased from older to newer date), DECLINING (decreased), STABLE (similar volume)</t>
         </is>
       </c>
     </row>
@@ -675,28 +675,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Definition: Measures the financial cost of using Large Language Models (LLMs) for processing requests.</t>
+          <t>Definition: Shows the comparison of Large Language Model (LLM) expenditure between two dates.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>This metric tracks expenditure on AI processing and helps monitor cost efficiency of LLM usage.</t>
+          <t>Tracks how AI processing costs have changed, helping identify cost efficiency trends.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Example: 03-10 Total Cost: $45.67, 02-10: $42.30, Change: +$3.37 (↑8.0% increase)</t>
+          <t>Example: 02-10 Total Cost: $45.67, 01-10: $42.30, Change: +$3.37 (↑8.0% increase)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Status: EFFICIENT (cost per request decreased), EXPENSIVE (cost per request increased), STABLE (similar cost efficiency)</t>
+          <t>Status: EFFICIENT (cost per request decreased from older to newer date), EXPENSIVE (increased), STABLE (similar efficiency)</t>
         </is>
       </c>
     </row>
@@ -710,28 +710,28 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Definition: Measures the percentage of successful requests compared to the total number of requests.</t>
+          <t>Definition: Shows the comparison of successful request percentages between two dates.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>This metric indicates system stability and error rates. Higher percentages indicate fewer failures.</t>
+          <t>Illustrates how system stability and error rates have evolved between the compared dates.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Example: 03-10 Success Rate: 98.5%, 02-10: 96.8%, Change: +1.7% (↑1.8% improvement)</t>
+          <t>Example: 02-10 Success Rate: 98.5%, 01-10: 96.8%, Change: +1.7% (↑1.8% improvement)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Status: IMPROVING (higher success rate), DEGRADING (lower success rate), STABLE (similar success rate)</t>
+          <t>Status: IMPROVING (success rate increased from older to newer date), DEGRADING (decreased), STABLE (similar rates)</t>
         </is>
       </c>
     </row>
@@ -745,28 +745,28 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Definition: Measures the number of unique users interacting with the system in a given time period.</t>
+          <t>Definition: Shows the comparison of unique user counts between two dates.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>This metric tracks user engagement and adoption. Higher numbers indicate broader usage of the system.</t>
+          <t>Demonstrates how the user base has changed, indicating shifts in adoption and engagement patterns.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Example: 03-10 Unique Users: 892, 02-10: 847, Change: +45 users (↑5.3% growth)</t>
+          <t>Example: 02-10 Unique Users: 892, 01-10: 847, Change: +45 users (↑5.3% growth)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Status: GROWING (more unique users), DECLINING (fewer unique users), STABLE (similar user count)</t>
+          <t>Status: GROWING (user count increased from older to newer date), DECLINING (decreased), STABLE (similar count)</t>
         </is>
       </c>
     </row>

--- a/October_daily.xlsx
+++ b/October_daily.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Daily_Analysis_01_10_vs_02_10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Daily_Analysis_02_10_vs_03_10" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Daily_Analysis_03_10_vs_06_10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Daily_Analysis_06_10_vs_07_10" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,183 +589,189 @@
         <v/>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3">
+        <f>HYPERLINK("#'Daily_Analysis_06_10_vs_07_10'!A1","Daily_Analysis_06_10_vs_07_10")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Metric Definitions</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>1. Latency Metric</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Definition: Shows the comparison of average response time between two dates in seconds.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Reveals how system performance has changed over time. A decrease in response time indicates improved performance.</t>
+          <t>Definition: Shows the comparison of average response time between two dates in seconds.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Example: 02-10 Avg Response Time: 39.57s, 01-10: 38.98s, Change: +0.59s (↑1.5% increase)</t>
+          <t>Reveals how system performance has changed over time. A decrease in response time indicates improved performance.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Example: 02_10_2025 Avg Response Time: 39.57s, 01_10_2025: 38.98s, Change: +0.59s (↑1.5% increase)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Status: IMPROVING (response time decreased from older to newer date), DEGRADING (increased), STABLE (minimal change)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2. Throughput Metric</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Definition: Shows the comparison of total request volume between two dates.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Highlights changes in system usage and demand between the compared dates.</t>
+          <t>Definition: Shows the comparison of total request volume between two dates.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Example: 02-10 Total Requests: 1,247, 01-10: 1,156, Change: +91 requests (↑7.9% increase)</t>
+          <t>Highlights changes in system usage and demand between the compared dates.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Example: 02_10_2025 Total Requests: 1,247, 01_10_2025: 1,156, Change: +91 requests (↑7.9% increase)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Status: GROWING (requests increased from older to newer date), DECLINING (decreased), STABLE (similar volume)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>3. LLM Cost Metric</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Definition: Shows the comparison of Large Language Model (LLM) expenditure between two dates.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tracks how AI processing costs have changed, helping identify cost efficiency trends.</t>
+          <t>Definition: Shows the comparison of Large Language Model (LLM) expenditure between two dates.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Example: 02-10 Total Cost: $45.67, 01-10: $42.30, Change: +$3.37 (↑8.0% increase)</t>
+          <t>Tracks how AI processing costs have changed, helping identify cost efficiency trends.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Example: 02_10_2025 Total Cost: $45.67, 01_10_2025: $42.30, Change: +$3.37 (↑8.0% increase)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Status: EFFICIENT (cost per request decreased from older to newer date), EXPENSIVE (increased), STABLE (similar efficiency)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>4. Reliability Metric</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Definition: Shows the comparison of successful request percentages between two dates.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Illustrates how system stability and error rates have evolved between the compared dates.</t>
+          <t>Definition: Shows the comparison of successful request percentages between two dates.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Example: 02-10 Success Rate: 98.5%, 01-10: 96.8%, Change: +1.7% (↑1.8% improvement)</t>
+          <t>Illustrates how system stability and error rates have evolved between the compared dates.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Example: 02_10_2025 Success Rate: 98.5%, 01_10_2025: 96.8%, Change: +1.7% (↑1.8% improvement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Status: IMPROVING (success rate increased from older to newer date), DEGRADING (decreased), STABLE (similar rates)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>5. User Activity Metric</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Definition: Shows the comparison of unique user counts between two dates.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Demonstrates how the user base has changed, indicating shifts in adoption and engagement patterns.</t>
+          <t>Definition: Shows the comparison of unique user counts between two dates.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Example: 02-10 Unique Users: 892, 01-10: 847, Change: +45 users (↑5.3% growth)</t>
+          <t>Demonstrates how the user base has changed, indicating shifts in adoption and engagement patterns.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
+        <is>
+          <t>Example: 02_10_2025 Unique Users: 892, 01_10_2025: 847, Change: +45 users (↑5.3% growth)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Status: GROWING (user count increased from older to newer date), DECLINING (decreased), STABLE (similar count)</t>
         </is>
@@ -790,8 +797,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
@@ -804,12 +811,12 @@
       </c>
       <c r="B1" s="6" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>"01_10_2025"</t>
         </is>
       </c>
       <c r="C1" s="6" t="inlineStr">
         <is>
-          <t>02-10</t>
+          <t>"02_10_2025"</t>
         </is>
       </c>
       <c r="D1" s="6" t="inlineStr">
@@ -1484,8 +1491,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="36" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
@@ -1498,12 +1505,12 @@
       </c>
       <c r="B1" s="6" t="inlineStr">
         <is>
-          <t>02-10</t>
+          <t>"02_10_2025"</t>
         </is>
       </c>
       <c r="C1" s="6" t="inlineStr">
         <is>
-          <t>03-10</t>
+          <t>"03_10_2025"</t>
         </is>
       </c>
       <c r="D1" s="6" t="inlineStr">
@@ -2178,8 +2185,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
@@ -2192,12 +2199,12 @@
       </c>
       <c r="B1" s="6" t="inlineStr">
         <is>
-          <t>03-10</t>
+          <t>"03_10_2025"</t>
         </is>
       </c>
       <c r="C1" s="6" t="inlineStr">
         <is>
-          <t>06-10</t>
+          <t>"06_10_2025"</t>
         </is>
       </c>
       <c r="D1" s="6" t="inlineStr">
@@ -2837,6 +2844,700 @@
       <c r="D35" s="12" t="inlineStr">
         <is>
           <t>+1 users (↑25.0% growth)</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>GROWING</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>"06_10_2025"</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>"07_10_2025"</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Latency Metric</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>+0.151ms (↑12.79% increase)</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>DEGRADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Throughput Metric</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>739</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>610</v>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>-129 requests (↓17.5% decrease)</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
+        <is>
+          <t>DECLINING</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>LLM Cost Metric</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>+0.01 (↑3.0% increase)</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>EXPENSIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>Reliability Metric</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>+0.0% (→0.0% no change)</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="inlineStr">
+        <is>
+          <t>STABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>User Activity Metric</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>-5 users (↓9.1% decline)</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>DECLINING</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>qna</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Latency Metric</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>+1.552ms (↑3.92% increase)</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>DEGRADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>Throughput Metric</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>-420 requests (↓5.0% decrease)</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>DECLINING</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>LLM Cost Metric</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>3628.21</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>3261.55</v>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>-366.66 (↓10.1% decrease)</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>EFFICIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>Reliability Metric</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D13" s="12" t="inlineStr">
+        <is>
+          <t>+2.1% (↑2.2% improvement)</t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t>IMPROVING</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>User Activity Metric</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>903</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>898</v>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>-5 users (↓0.6% decline)</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>DECLINING</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>preparesubmission</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>Latency Metric</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>51.88</v>
+      </c>
+      <c r="D17" s="13" t="inlineStr">
+        <is>
+          <t>+23.570ms (↑83.26% increase)</t>
+        </is>
+      </c>
+      <c r="E17" s="13" t="inlineStr">
+        <is>
+          <t>DEGRADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>Throughput Metric</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>+15 requests (↑34.1% increase)</t>
+        </is>
+      </c>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>GROWING</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>LLM Cost Metric</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>+1.07 (↑59.4% increase)</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>EXPENSIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>Reliability Metric</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>+0.0% (→0.0% no change)</t>
+        </is>
+      </c>
+      <c r="E20" s="14" t="inlineStr">
+        <is>
+          <t>STABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>User Activity Metric</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>+3 users (↑42.9% growth)</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>GROWING</t>
+        </is>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>relevantdoc</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="8" t="n"/>
+      <c r="E23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>Latency Metric</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D24" s="13" t="inlineStr">
+        <is>
+          <t>+0.025ms (↑3.31% increase)</t>
+        </is>
+      </c>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>DEGRADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>Throughput Metric</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>+22 requests (↑0.6% increase)</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>GROWING</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>LLM Cost Metric</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>+0.00 (→0.0% no change)</t>
+        </is>
+      </c>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t>STABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="inlineStr">
+        <is>
+          <t>Reliability Metric</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>+0.0% (→0.0% no change)</t>
+        </is>
+      </c>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>STABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>User Activity Metric</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>589</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>622</v>
+      </c>
+      <c r="D28" s="12" t="inlineStr">
+        <is>
+          <t>+33 users (↑5.6% growth)</t>
+        </is>
+      </c>
+      <c r="E28" s="12" t="inlineStr">
+        <is>
+          <t>GROWING</t>
+        </is>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="inlineStr">
+        <is>
+          <t>Latency Metric</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>75.81999999999999</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>-35.314ms (↓46.58% improvement)</t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>IMPROVING</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="inlineStr">
+        <is>
+          <t>Throughput Metric</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>144</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>-94 requests (↓65.3% decrease)</t>
+        </is>
+      </c>
+      <c r="E32" s="13" t="inlineStr">
+        <is>
+          <t>DECLINING</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="inlineStr">
+        <is>
+          <t>LLM Cost Metric</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C33" s="11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>-19.57 (↓89.3% decrease)</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EFFICIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="inlineStr">
+        <is>
+          <t>Reliability Metric</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="D34" s="13" t="inlineStr">
+        <is>
+          <t>-4.6% (↓4.7% degradation)</t>
+        </is>
+      </c>
+      <c r="E34" s="13" t="inlineStr">
+        <is>
+          <t>DEGRADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="inlineStr">
+        <is>
+          <t>User Activity Metric</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>+1 users (↑20.0% growth)</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
